--- a/Games_clean.xlsx
+++ b/Games_clean.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="1147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1153">
   <si>
     <t>year</t>
   </si>
@@ -355,6 +355,9 @@
     <t>Homeworld</t>
   </si>
   <si>
+    <t>Planescape: Torment</t>
+  </si>
+  <si>
     <t>Quake III: Arena</t>
   </si>
   <si>
@@ -778,6 +781,9 @@
     <t>Sony Online Entertainment</t>
   </si>
   <si>
+    <t>Interplay Entertainment</t>
+  </si>
+  <si>
     <t>Valve</t>
   </si>
   <si>
@@ -1099,7 +1105,7 @@
     <t>19921993 (MS-DOS, SNES, Acorn Archimedes, Sega Genesis)March 1995 (CD-i)[1]</t>
   </si>
   <si>
-    <t>Mortal KombatOctober 8, 1992</t>
+    <t>1992 ArcadeNA: October 8, 1992 Super NESNA: September 13, 1993EU: October 28, 1993JP: December 24, 1993 Game GearNA: September 13, 1993EU: September 13, 1993[1] Game BoyNA: September 13, 1993EU: February 1, 1994[2] Genesis/Mega DriveNA: September 13, 1993EU: September 13, 1993[1] Master SystemPAL: September 13, 1993[1] MS-DOSNA: May 25, 1994 Sega CD/Mega-CDNA: May 26, 1994EU: 1994 AmigaEU: 1994 Mobile PhoneNA: September 2004</t>
   </si>
   <si>
     <t>November 21, 1992 Sega GenesisJP: November 21, 1992NA/EU: November 24, 1992AU: December 1, 1992ArcadeWW: 1994Android, iOSWW: December 12, 2013Windows PhoneWW: December 14, 2013Nintendo 3DSJP: July 22, 2015WW: October 8, 2015Nintendo SwitchJP: February 13, 2020WW: February 20, 2020</t>
@@ -1279,6 +1285,9 @@
     <t>Original releaseSeptember 28, 1999 (Windows)RemasterFebruary 25, 2015 (Windows)August 6, 2015 (macOS)</t>
   </si>
   <si>
+    <t>December 12, 1999Enhanced Edition:April 11, 2017(Windows, macOS, Linux, iOS, Android)October 15, 2019(Switch, PS4, Xbox One)</t>
+  </si>
+  <si>
     <t>December 2, 1999 Microsoft WindowsNA: December 2, 1999EU: December 1999WW: August 3, 2007 (digital) Microsoft Windows (Team Arena)NA: December 18, 2000EU: January 26, 2001WW: August 3, 2007 (digital) Microsoft Windows (Gold)NA: September 26, 2001EU: August 9, 2002 LinuxNA: December 10, 1999 Mac OSNA: December 27, 1999 Mac OS (Team Arena)NA: 2001 Mac OS (Gold)NA: October, 2001EU: August 9, 2002 DreamcastNA: October 22, 2000EU: December 8, 2000 PlayStation 2 (Revolution)NA: March 26, 2001EU: April 6, 2001 Xbox 360 (Arena Arcade)WW: December 15, 2010</t>
   </si>
   <si>
@@ -1357,7 +1366,7 @@
     <t>29 October 2002 PlayStation 2NA: 29 October 2002PAL: 8 November 2002Microsoft WindowsNA: 12 May 2003EU: 15 May 2003AU: 21 May 2003XboxNA: 31 October 2003PAL: 2 January 2004Mac OS XWW: 12 November 2010iOSWW: 6 December 2012AndroidWW: 12 December 2012Fire OSWW: 15 May 2014</t>
   </si>
   <si>
-    <t>Kingdom HeartsMarch 28, 2002</t>
+    <t>.mw-parser-output .nobold{font-weight:normal}March 28, 2002 JP: March 28, 2002NA: September 17, 2002EU: November 15, 2002AU: November 22, 2002JP: December 26, 2002 (Final Mix)</t>
   </si>
   <si>
     <t>JP: December 13, 2002NA: March 24, 2003KOR: April 16, 2003EU: May 2, 2003AU: May 7, 2003</t>
@@ -1726,7 +1735,7 @@
     <t>//upload.wikimedia.org/wikipedia/en/thumb/8/8d/Flashback_cover.png/220px-Flashback_cover.png</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/en/thumb/b/b1/Mortal_Kombat_Logo.svg/250px-Mortal_Kombat_Logo.svg.png</t>
+    <t>//upload.wikimedia.org/wikipedia/en/3/33/Mortal_Kombat_cover.JPG</t>
   </si>
   <si>
     <t>//upload.wikimedia.org/wikipedia/commons/thumb/e/e1/Ambox_warning_blue_construction.svg/46px-Ambox_warning_blue_construction.svg.png</t>
@@ -1894,6 +1903,9 @@
     <t>//upload.wikimedia.org/wikipedia/en/thumb/4/4b/Homeworld_%28video_game%29_box_art.jpg/220px-Homeworld_%28video_game%29_box_art.jpg</t>
   </si>
   <si>
+    <t>//upload.wikimedia.org/wikipedia/en/thumb/0/06/Planescape-torment-box.jpg/220px-Planescape-torment-box.jpg</t>
+  </si>
+  <si>
     <t>//upload.wikimedia.org/wikipedia/en/thumb/a/a1/Quake3Title.jpg/220px-Quake3Title.jpg</t>
   </si>
   <si>
@@ -1969,7 +1981,7 @@
     <t>//upload.wikimedia.org/wikipedia/en/thumb/c/ce/Vice-city-cover.jpg/220px-Vice-city-cover.jpg</t>
   </si>
   <si>
-    <t>//upload.wikimedia.org/wikipedia/en/thumb/6/68/Kingdom_Hearts_logo.png/250px-Kingdom_Hearts_logo.png</t>
+    <t>//upload.wikimedia.org/wikipedia/en/thumb/8/85/Kingdom_Hearts.jpg/220px-Kingdom_Hearts.jpg</t>
   </si>
   <si>
     <t>//upload.wikimedia.org/wikipedia/en/thumb/7/79/The_Legend_of_Zelda_The_Wind_Waker.jpg/220px-The_Legend_of_Zelda_The_Wind_Waker.jpg</t>
@@ -2923,6 +2935,34 @@
   </si>
   <si>
     <t>&lt;p&gt;Homeworld is a strategy game developed by Relic Entertainment. It was originally released in 1999. It was published by Sierra On-Line. The game is rated as "Exceptional" on RAWG. &lt;br&gt;You can play Homeworld on PC. &lt;br&gt;It was produced by Curtis Terry. It was directed by Alex Garden. Paul Ruskay scored the game. &lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Reviewers say:&lt;br /&gt;
+&amp;quot;Planescape: Torment is a wonderful game, and its Enhanced Edition is a splendid, unobtrusive, beautifying update.&amp;quot;&lt;br /&gt;
+-Geek &amp;amp; Sundry&lt;br /&gt;
+&amp;quot;Planescape: Torment still stands tall as a landmark masterpiece that can continue to age gracefully, now on your phone or tablet&amp;quot;&lt;br /&gt;
+-Touch Arcade&lt;br /&gt;
+&amp;quot;Planescape: Torment is a timeless classic, the Enhanced Edition just makes it better&amp;quot;&lt;br /&gt;
+-Bleeding Cool&lt;br /&gt;
+Uncover secrets of past lives in this story-rich, tactical roleplaying game set in Sigil, a dark fantasy city at the heart of the Dungeons &amp;amp; Dragons multiverse. Explore the planes, survive combat alongside a party of bizarre companions, and solve puzzles unlike any ever seen in the genre.&lt;br /&gt;
+The original Planescape: Torment was released in 1999 to widespread critical acclaim. It won RPG of the Year from multiple outlets for its unconventional story, characters, and amazing soundtrack. Since then, millions of Planescape: Torment fans have enjoyed exploring the strange and dangerous city of Sigil and surrounding planes.&lt;br /&gt;
+Discover an incredibly rich story and a unique setting unlike anything else in fantasy. Defeat strange and alien creatures, engage in rich dialogue, and explore the dark and dangerous Planescape setting in this 50+ hour RPG classic.&lt;br /&gt;
+This is Planescape: Torment like you’ve never seen before.&lt;br /&gt;
+Story:&lt;br /&gt;
+&amp;quot;What can change the nature of a man?&amp;quot;&lt;br /&gt;
+You are The Nameless One, a hulking figure covered in scars and tattoos collected over the course of countless lives—none of which you can remember, but are now coming back to haunt you. You are prodded awake by Morte, a floating skull and keeper of secrets, to embark on an adventure taking the Nameless One from the dirty streets of Sigil into the mysterious Outer Planes and even into the depths of Hell itself.&lt;br /&gt;
+In your search for answers, you&amp;#39;ll find companions matching the bizarre nature of the planes: a chaste succubus who can kill with a kiss, a confused crossbow-wielding cube, a suit of armor animated by a spirit demanding JUSTICE, and more. With these companions and others at The Nameless One’s side, you will explore worlds in search of answers, all to discover that some destinies cannot be escaped and some memories cost more than an immortal should be willing to pay.&lt;br /&gt;
+Beamdog’s Enhanced Edition titles are designed for 7 inch and larger tablets. We recommend this title to iPhone players using the iPhone 7 or iPhone 7 Plus.&lt;br /&gt;
+Features&lt;br /&gt;
+-Enhanced Planescape: Chris Avellone, Lead Designer on Planescape Torment, has partnered with Beamdog to curate gameplay updates, bug fixes, and enhancements to best capture his original vision for the game.&lt;br /&gt;
+-The Planes Await: Planescape is a setting you&amp;#39;ve never experienced before, filled with strange magics, bizarre adversaries, and Dungeons &amp;amp; Dragons locations from across the multiverse.&lt;br /&gt;
+-Conversations to Remember: Encounter personable items, philosophic undead, and rat hiveminds while walking the planes with the strangest collection of allies ever seen in an RPG.&lt;br /&gt;
+-Pick Your Path: Character creation is just the beginning. The Nameless One can change his class, alignment, and even gain new abilities based on your choices.&lt;br /&gt;
+-Remastered Music: The full Planescape: Torment soundtrack has been remastered in-game to add more depth to Sigil and the multiverse.&lt;br /&gt;
+-New Tablet Interface, Same Planescape Feel: Planescape: Torment: Enhanced Edition has been designed with tablets in mind. Open and close side menus with a touch, select dialog options with handy conversation buttons, and make tactical decisions with a brand-new action indicator.&lt;br /&gt;
+-A Planescape For Today: Modern features such as tab highlighting, area zooming, combat log, quickloot, and more!&lt;br /&gt;
+-Play It Your Way: Enable Enhanced Edition features as you desire or turn them off to experience Planescape: Torment in its original glory.&lt;br /&gt;
+- Planescape: Torment: Enhanced Edition is available in English, French, Polish, German, and Korean. Note: Korean translations are text only. Voice-overs are played in English.&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;The third game in the genre of first-person shooter in a series of Quake. Unlike previous games in the series, the game is focused on a multiplayer mode, and does not have a full-fledged single-player campaign.&lt;/p&gt;
@@ -4654,6 +4694,9 @@
   </si>
   <si>
     <t>['https://media.rawg.io/media/screenshots/048/0489e8c25b0dac1d22719e55a8587d6c.jpg', 'https://media.rawg.io/media/screenshots/7e1/7e1b0f1cfca09898aaf7695f96b990e1.jpg', 'https://media.rawg.io/media/screenshots/aa2/aa2e0cff4736e48c732e53a92ca7031e.jpg', 'https://media.rawg.io/media/screenshots/f93/f9374454b6e8ab7099fd4b90e2c1d0c3.jpg', 'https://media.rawg.io/media/screenshots/37b/37b508abb18c3a9f2643619f383f37da.jpg', 'https://media.rawg.io/media/screenshots/660/6601d4136bc2c1be3ba1782014e823fc.jpg']</t>
+  </si>
+  <si>
+    <t>['https://media.rawg.io/media/screenshots/98a/98a49c7ee140d362b747f7ff2043c65a.jpg', 'https://media.rawg.io/media/screenshots/778/778fbe7c5b634c3512ba2746dd9e3dfc.jpg', 'https://media.rawg.io/media/screenshots/661/6611a35b09e9f582365764eebeeea301.jpg', 'https://media.rawg.io/media/screenshots/f29/f29d3c2b2c841e22837056c513962d2f.jpg', 'https://media.rawg.io/media/screenshots/f7c/f7c9767acfe18fc7e8fae02b0f988351.jpg', 'https://media.rawg.io/media/screenshots/d7e/d7e952b22928aa8121797cbb235ec57d.jpg']</t>
   </si>
   <si>
     <t>['https://media.rawg.io/media/screenshots/c61/c6164c0b74d510ee7657cab07888dd03.jpg', 'https://media.rawg.io/media/screenshots/2bd/2bda7e7358587215533748f41ec00e67.jpg', 'https://media.rawg.io/media/screenshots/48a/48a536a149976eca826a55139a933340.jpg', 'https://media.rawg.io/media/screenshots/a23/a231315a4f1417ff64b1c6d203e6b552.jpg', 'https://media.rawg.io/media/screenshots/9bc/9bcf4e1102727eea8207e3402e7a44ce.jpg', 'https://media.rawg.io/media/screenshots/2d5/2d5ffc18bfb0567bea5bb8c19b6fe3da.jpg']</t>
@@ -5329,7 +5372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I212"/>
+  <dimension ref="A1:I213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5372,22 +5415,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H2" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="I2" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5401,22 +5444,22 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="H3" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="I3" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5430,22 +5473,22 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="H4" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="I4" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5459,22 +5502,22 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H5" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="I5" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5488,22 +5531,22 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H6" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="I6" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5517,22 +5560,22 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="I7" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5546,22 +5589,22 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G8" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="H8" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="I8" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5575,22 +5618,22 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G9" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="H9" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="I9" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5604,22 +5647,22 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H10" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="I10" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5633,22 +5676,22 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G11" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="H11" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
       <c r="I11" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5662,22 +5705,22 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G12" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="H12" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="I12" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5691,22 +5734,22 @@
         <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G13" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="H13" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="I13" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5720,22 +5763,22 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G14" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H14" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="I14" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5749,22 +5792,22 @@
         <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G15" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="H15" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="I15" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5778,22 +5821,22 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F16" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G16" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="H16" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="I16" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5807,22 +5850,22 @@
         <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F17" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G17" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H17" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="I17" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5836,22 +5879,22 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G18" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="H18" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="I18" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5865,22 +5908,22 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F19" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G19" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H19" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
       <c r="I19" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5894,22 +5937,22 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F20" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G20" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="H20" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="I20" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5923,22 +5966,22 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F21" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G21" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="H21" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="I21" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5952,19 +5995,19 @@
         <v>28</v>
       </c>
       <c r="D22" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F22" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G22" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="I22" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5978,22 +6021,22 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F23" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G23" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H23" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="I23" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6007,22 +6050,22 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F24" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G24" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H24" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="I24" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6036,22 +6079,22 @@
         <v>31</v>
       </c>
       <c r="D25" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F25" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G25" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="H25" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="I25" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6065,22 +6108,22 @@
         <v>32</v>
       </c>
       <c r="D26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F26" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G26" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="H26" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="I26" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6094,22 +6137,22 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F27" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G27" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H27" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="I27" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6123,22 +6166,22 @@
         <v>34</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F28" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G28" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="H28" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="I28" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6152,22 +6195,22 @@
         <v>35</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E29" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F29" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G29" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H29" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="I29" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6181,22 +6224,22 @@
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F30" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G30" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="H30" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="I30" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6210,22 +6253,22 @@
         <v>37</v>
       </c>
       <c r="D31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F31" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G31" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H31" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="I31" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6239,22 +6282,22 @@
         <v>38</v>
       </c>
       <c r="D32" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E32" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F32" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G32" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H32" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="I32" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6268,22 +6311,22 @@
         <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F33" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G33" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="H33" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="I33" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6297,22 +6340,22 @@
         <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F34" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="H34" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="I34" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6326,22 +6369,22 @@
         <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F35" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G35" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="H35" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="I35" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6355,22 +6398,22 @@
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F36" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G36" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="H36" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="I36" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -6384,22 +6427,22 @@
         <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F37" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="H37" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="I37" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -6413,22 +6456,22 @@
         <v>44</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E38" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F38" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G38" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="H38" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="I38" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6442,22 +6485,22 @@
         <v>45</v>
       </c>
       <c r="D39" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F39" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G39" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="H39" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="I39" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -6471,22 +6514,22 @@
         <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E40" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="H40" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="I40" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6500,22 +6543,22 @@
         <v>47</v>
       </c>
       <c r="D41" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E41" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F41" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G41" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H41" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="I41" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6529,22 +6572,22 @@
         <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E42" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F42" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="H42" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="I42" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6558,22 +6601,22 @@
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E43" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F43" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G43" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="H43" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="I43" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6587,22 +6630,22 @@
         <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E44" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F44" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G44" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H44" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="I44" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6616,22 +6659,22 @@
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E45" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F45" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G45" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="H45" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="I45" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6645,22 +6688,22 @@
         <v>52</v>
       </c>
       <c r="D46" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E46" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F46" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G46" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H46" t="s">
-        <v>769</v>
+        <v>773</v>
       </c>
       <c r="I46" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -6674,22 +6717,22 @@
         <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F47" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G47" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="H47" t="s">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="I47" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -6703,22 +6746,22 @@
         <v>54</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E48" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F48" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G48" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="H48" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="I48" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6732,22 +6775,22 @@
         <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E49" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G49" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H49" t="s">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="I49" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6761,22 +6804,22 @@
         <v>56</v>
       </c>
       <c r="D50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F50" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G50" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H50" t="s">
-        <v>773</v>
+        <v>777</v>
       </c>
       <c r="I50" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6790,22 +6833,22 @@
         <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F51" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G51" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="H51" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="I51" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -6819,22 +6862,22 @@
         <v>58</v>
       </c>
       <c r="D52" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E52" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F52" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G52" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="H52" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="I52" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -6848,22 +6891,22 @@
         <v>59</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F53" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G53" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="H53" t="s">
-        <v>776</v>
+        <v>780</v>
       </c>
       <c r="I53" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -6877,22 +6920,22 @@
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E54" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F54" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G54" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="H54" t="s">
-        <v>777</v>
+        <v>781</v>
       </c>
       <c r="I54" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -6906,22 +6949,22 @@
         <v>61</v>
       </c>
       <c r="D55" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F55" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G55" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="H55" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="I55" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -6935,22 +6978,22 @@
         <v>62</v>
       </c>
       <c r="D56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E56" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F56" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G56" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H56" t="s">
-        <v>779</v>
+        <v>783</v>
       </c>
       <c r="I56" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -6964,22 +7007,22 @@
         <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F57" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G57" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H57" t="s">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="I57" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -6993,22 +7036,22 @@
         <v>64</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E58" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="F58" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G58" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="H58" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="I58" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7022,22 +7065,22 @@
         <v>65</v>
       </c>
       <c r="D59" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E59" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F59" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G59" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="H59" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="I59" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7051,22 +7094,22 @@
         <v>66</v>
       </c>
       <c r="D60" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E60" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F60" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G60" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="H60" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="I60" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7080,22 +7123,22 @@
         <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E61" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F61" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G61" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H61" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="I61" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7109,22 +7152,22 @@
         <v>68</v>
       </c>
       <c r="D62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F62" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G62" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="H62" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="I62" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7138,22 +7181,22 @@
         <v>69</v>
       </c>
       <c r="D63" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F63" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G63" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="H63" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="I63" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -7167,22 +7210,22 @@
         <v>70</v>
       </c>
       <c r="D64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E64" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F64" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G64" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="H64" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="I64" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7196,22 +7239,22 @@
         <v>71</v>
       </c>
       <c r="D65" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E65" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F65" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G65" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H65" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="I65" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -7225,22 +7268,22 @@
         <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F66" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G66" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="H66" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="I66" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7254,22 +7297,22 @@
         <v>73</v>
       </c>
       <c r="D67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F67" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G67" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="H67" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="I67" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7283,22 +7326,22 @@
         <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E68" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F68" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G68" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="H68" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="I68" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7312,22 +7355,22 @@
         <v>75</v>
       </c>
       <c r="D69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E69" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F69" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="G69" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="H69" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="I69" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -7341,22 +7384,22 @@
         <v>76</v>
       </c>
       <c r="D70" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E70" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F70" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G70" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="H70" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="I70" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -7370,22 +7413,22 @@
         <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E71" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F71" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G71" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="H71" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="I71" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -7399,22 +7442,22 @@
         <v>78</v>
       </c>
       <c r="D72" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E72" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F72" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G72" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="H72" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="I72" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -7428,22 +7471,22 @@
         <v>79</v>
       </c>
       <c r="D73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E73" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F73" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G73" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="H73" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="I73" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -7457,22 +7500,22 @@
         <v>80</v>
       </c>
       <c r="D74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E74" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F74" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G74" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="H74" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="I74" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -7486,22 +7529,22 @@
         <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E75" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F75" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G75" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H75" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="I75" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -7515,22 +7558,22 @@
         <v>82</v>
       </c>
       <c r="D76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E76" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F76" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="G76" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="H76" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="I76" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -7544,22 +7587,22 @@
         <v>83</v>
       </c>
       <c r="D77" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E77" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F77" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G77" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="H77" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="I77" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -7573,22 +7616,22 @@
         <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E78" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F78" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G78" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="H78" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="I78" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7602,22 +7645,22 @@
         <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F79" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G79" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="H79" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="I79" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7631,22 +7674,22 @@
         <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E80" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F80" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G80" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="H80" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="I80" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7660,22 +7703,22 @@
         <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E81" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F81" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G81" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H81" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="I81" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -7689,22 +7732,22 @@
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E82" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F82" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="G82" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H82" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="I82" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -7718,22 +7761,22 @@
         <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F83" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G83" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="H83" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="I83" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -7747,22 +7790,22 @@
         <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F84" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="G84" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="H84" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="I84" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7776,22 +7819,22 @@
         <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F85" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G85" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="H85" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="I85" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7805,22 +7848,22 @@
         <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F86" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G86" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H86" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="I86" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7834,22 +7877,22 @@
         <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E87" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F87" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="G87" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="H87" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="I87" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7863,22 +7906,22 @@
         <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F88" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G88" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="H88" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="I88" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7892,22 +7935,22 @@
         <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E89" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F89" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G89" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="H89" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="I89" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7921,22 +7964,22 @@
         <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E90" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F90" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G90" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="H90" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="I90" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -7950,22 +7993,22 @@
         <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F91" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G91" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="H91" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="I91" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -7979,22 +8022,22 @@
         <v>98</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E92" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F92" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G92" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="H92" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="I92" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -8008,22 +8051,22 @@
         <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E93" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F93" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="G93" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="H93" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="I93" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -8037,22 +8080,22 @@
         <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F94" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G94" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="H94" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="I94" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -8066,22 +8109,22 @@
         <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E95" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F95" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G95" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="H95" t="s">
-        <v>818</v>
+        <v>822</v>
       </c>
       <c r="I95" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -8095,22 +8138,22 @@
         <v>102</v>
       </c>
       <c r="D96" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F96" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G96" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H96" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="I96" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -8124,22 +8167,22 @@
         <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E97" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F97" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="G97" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="H97" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="I97" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -8153,22 +8196,22 @@
         <v>104</v>
       </c>
       <c r="D98" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E98" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F98" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G98" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="H98" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="I98" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -8182,22 +8225,22 @@
         <v>105</v>
       </c>
       <c r="D99" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F99" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G99" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H99" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
       <c r="I99" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -8211,22 +8254,22 @@
         <v>106</v>
       </c>
       <c r="D100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E100" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F100" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G100" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="H100" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="I100" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -8240,22 +8283,22 @@
         <v>107</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F101" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G101" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="H101" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="I101" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -8269,22 +8312,22 @@
         <v>108</v>
       </c>
       <c r="D102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E102" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F102" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G102" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="H102" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="I102" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -8298,22 +8341,22 @@
         <v>109</v>
       </c>
       <c r="D103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E103" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F103" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G103" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="H103" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="I103" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -8327,22 +8370,22 @@
         <v>110</v>
       </c>
       <c r="D104" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E104" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F104" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G104" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="H104" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="I104" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -8356,22 +8399,22 @@
         <v>111</v>
       </c>
       <c r="D105" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E105" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F105" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G105" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H105" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="I105" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -8385,27 +8428,27 @@
         <v>112</v>
       </c>
       <c r="D106" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E106" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F106" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G106" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="H106" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="I106" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="1">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107">
         <v>1999</v>
@@ -8414,27 +8457,27 @@
         <v>113</v>
       </c>
       <c r="D107" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="E107" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F107" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G107" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="H107" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="I107" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="1">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108">
         <v>1999</v>
@@ -8443,27 +8486,27 @@
         <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E108" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F108" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G108" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="H108" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="I108" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="1">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109">
         <v>1999</v>
@@ -8475,24 +8518,24 @@
         <v>232</v>
       </c>
       <c r="E109" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F109" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G109" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="H109" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="I109" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="1">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110">
         <v>1999</v>
@@ -8501,27 +8544,27 @@
         <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="E110" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="F110" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="G110" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="H110" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="I110" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="1">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111">
         <v>1999</v>
@@ -8533,53 +8576,53 @@
         <v>245</v>
       </c>
       <c r="E111" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F111" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="G111" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="H111" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="I111" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B112">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="C112" t="s">
         <v>118</v>
       </c>
       <c r="D112" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E112" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F112" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G112" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="H112" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
       <c r="I112" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B113">
         <v>2000</v>
@@ -8588,27 +8631,27 @@
         <v>119</v>
       </c>
       <c r="D113" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E113" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F113" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G113" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H113" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="I113" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B114">
         <v>2000</v>
@@ -8617,27 +8660,27 @@
         <v>120</v>
       </c>
       <c r="D114" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="E114" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F114" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G114" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="H114" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="I114" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B115">
         <v>2000</v>
@@ -8646,27 +8689,27 @@
         <v>121</v>
       </c>
       <c r="D115" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E115" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F115" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="G115" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="H115" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="I115" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B116">
         <v>2000</v>
@@ -8675,27 +8718,27 @@
         <v>122</v>
       </c>
       <c r="D116" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="E116" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="F116" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G116" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="H116" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="I116" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B117">
         <v>2000</v>
@@ -8704,56 +8747,56 @@
         <v>123</v>
       </c>
       <c r="D117" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="E117" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F117" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="G117" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="H117" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
       <c r="I117" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B118">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="C118" t="s">
         <v>124</v>
       </c>
       <c r="D118" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E118" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F118" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G118" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="H118" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="I118" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B119">
         <v>2001</v>
@@ -8762,27 +8805,27 @@
         <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E119" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F119" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G119" t="s">
-        <v>531</v>
+        <v>641</v>
       </c>
       <c r="H119" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="I119" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B120">
         <v>2001</v>
@@ -8791,27 +8834,27 @@
         <v>126</v>
       </c>
       <c r="D120" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E120" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F120" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="G120" t="s">
-        <v>638</v>
+        <v>534</v>
       </c>
       <c r="H120" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="I120" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B121">
         <v>2001</v>
@@ -8820,27 +8863,27 @@
         <v>127</v>
       </c>
       <c r="D121" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E121" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F121" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G121" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="H121" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="I121" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B122">
         <v>2001</v>
@@ -8849,27 +8892,27 @@
         <v>128</v>
       </c>
       <c r="D122" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E122" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F122" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G122" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="H122" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="I122" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B123">
         <v>2001</v>
@@ -8878,27 +8921,27 @@
         <v>129</v>
       </c>
       <c r="D123" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E123" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F123" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G123" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="H123" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="I123" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B124">
         <v>2001</v>
@@ -8907,27 +8950,27 @@
         <v>130</v>
       </c>
       <c r="D124" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E124" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F124" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="G124" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="H124" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="I124" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B125">
         <v>2001</v>
@@ -8936,27 +8979,27 @@
         <v>131</v>
       </c>
       <c r="D125" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E125" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F125" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G125" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="H125" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="I125" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B126">
         <v>2001</v>
@@ -8965,27 +9008,27 @@
         <v>132</v>
       </c>
       <c r="D126" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E126" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="F126" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="G126" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="H126" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="I126" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B127">
         <v>2001</v>
@@ -8994,27 +9037,27 @@
         <v>133</v>
       </c>
       <c r="D127" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="E127" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F127" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G127" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="H127" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="I127" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B128">
         <v>2001</v>
@@ -9023,27 +9066,27 @@
         <v>134</v>
       </c>
       <c r="D128" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E128" t="s">
         <v>301</v>
       </c>
       <c r="F128" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G128" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="H128" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="I128" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B129">
         <v>2001</v>
@@ -9055,24 +9098,24 @@
         <v>232</v>
       </c>
       <c r="E129" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F129" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="G129" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="H129" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="I129" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B130">
         <v>2001</v>
@@ -9081,56 +9124,56 @@
         <v>136</v>
       </c>
       <c r="D130" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E130" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F130" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="G130" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="H130" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="I130" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B131">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C131" t="s">
         <v>137</v>
       </c>
       <c r="D131" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="E131" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F131" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G131" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="H131" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="I131" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B132">
         <v>2002</v>
@@ -9139,27 +9182,27 @@
         <v>138</v>
       </c>
       <c r="D132" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E132" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F132" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G132" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="H132" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="I132" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B133">
         <v>2002</v>
@@ -9168,27 +9211,27 @@
         <v>139</v>
       </c>
       <c r="D133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E133" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F133" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G133" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H133" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="I133" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B134">
         <v>2002</v>
@@ -9197,27 +9240,27 @@
         <v>140</v>
       </c>
       <c r="D134" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F134" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="G134" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="H134" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="I134" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B135">
         <v>2002</v>
@@ -9226,27 +9269,27 @@
         <v>141</v>
       </c>
       <c r="D135" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E135" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F135" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="G135" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="H135" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="I135" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B136">
         <v>2002</v>
@@ -9255,56 +9298,56 @@
         <v>142</v>
       </c>
       <c r="D136" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E136" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="F136" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="G136" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="H136" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="I136" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B137">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C137" t="s">
         <v>143</v>
       </c>
       <c r="D137" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="E137" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="F137" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G137" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="H137" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="I137" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B138">
         <v>2003</v>
@@ -9313,27 +9356,27 @@
         <v>144</v>
       </c>
       <c r="D138" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="E138" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F138" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="G138" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="H138" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="I138" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B139">
         <v>2003</v>
@@ -9342,27 +9385,27 @@
         <v>145</v>
       </c>
       <c r="D139" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E139" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F139" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="G139" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="H139" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="I139" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B140">
         <v>2003</v>
@@ -9371,24 +9414,27 @@
         <v>146</v>
       </c>
       <c r="D140" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="E140" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F140" t="s">
-        <v>454</v>
+        <v>456</v>
+      </c>
+      <c r="G140" t="s">
+        <v>661</v>
       </c>
       <c r="H140" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="I140" t="s">
-        <v>1074</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B141">
         <v>2003</v>
@@ -9397,56 +9443,53 @@
         <v>147</v>
       </c>
       <c r="D141" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="E141" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F141" t="s">
-        <v>455</v>
-      </c>
-      <c r="G141" t="s">
-        <v>658</v>
+        <v>457</v>
       </c>
       <c r="H141" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="I141" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B142">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="C142" t="s">
         <v>148</v>
       </c>
       <c r="D142" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="E142" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F142" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="G142" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="H142" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="I142" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B143">
         <v>2004</v>
@@ -9455,27 +9498,27 @@
         <v>149</v>
       </c>
       <c r="D143" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E143" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F143" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G143" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="H143" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="I143" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B144">
         <v>2004</v>
@@ -9484,27 +9527,27 @@
         <v>150</v>
       </c>
       <c r="D144" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E144" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F144" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G144" t="s">
-        <v>531</v>
+        <v>664</v>
       </c>
       <c r="H144" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="I144" t="s">
-        <v>1078</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B145">
         <v>2004</v>
@@ -9513,27 +9556,27 @@
         <v>151</v>
       </c>
       <c r="D145" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E145" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F145" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G145" t="s">
-        <v>661</v>
+        <v>534</v>
       </c>
       <c r="H145" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="I145" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B146">
         <v>2004</v>
@@ -9545,24 +9588,24 @@
         <v>256</v>
       </c>
       <c r="E146" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="G146" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="H146" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="I146" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B147">
         <v>2004</v>
@@ -9571,27 +9614,27 @@
         <v>153</v>
       </c>
       <c r="D147" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="E147" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F147" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="G147" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="H147" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="I147" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B148">
         <v>2004</v>
@@ -9600,27 +9643,27 @@
         <v>154</v>
       </c>
       <c r="D148" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="E148" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F148" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G148" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="H148" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="I148" t="s">
-        <v>1082</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B149">
         <v>2004</v>
@@ -9629,56 +9672,56 @@
         <v>155</v>
       </c>
       <c r="D149" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="E149" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F149" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G149" t="s">
-        <v>531</v>
+        <v>668</v>
       </c>
       <c r="H149" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="I149" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B150">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="C150" t="s">
         <v>156</v>
       </c>
       <c r="D150" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="E150" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G150" t="s">
-        <v>665</v>
+        <v>534</v>
       </c>
       <c r="H150" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="I150" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B151">
         <v>2005</v>
@@ -9687,27 +9730,27 @@
         <v>157</v>
       </c>
       <c r="D151" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="F151" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G151" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="H151" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="I151" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B152">
         <v>2005</v>
@@ -9716,27 +9759,27 @@
         <v>158</v>
       </c>
       <c r="D152" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F152" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="G152" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="H152" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="I152" t="s">
-        <v>1086</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B153">
         <v>2005</v>
@@ -9745,27 +9788,27 @@
         <v>159</v>
       </c>
       <c r="D153" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="G153" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="H153" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="I153" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B154">
         <v>2005</v>
@@ -9774,27 +9817,27 @@
         <v>160</v>
       </c>
       <c r="D154" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E154" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G154" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="H154" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="I154" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155">
         <v>2005</v>
@@ -9803,27 +9846,27 @@
         <v>161</v>
       </c>
       <c r="D155" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="E155" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="F155" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="G155" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H155" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="I155" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="156" spans="1:9">
       <c r="A156" s="1">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156">
         <v>2005</v>
@@ -9832,27 +9875,27 @@
         <v>162</v>
       </c>
       <c r="D156" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G156" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="H156" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="I156" t="s">
-        <v>1090</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="157" spans="1:9">
       <c r="A157" s="1">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B157">
         <v>2005</v>
@@ -9861,56 +9904,56 @@
         <v>163</v>
       </c>
       <c r="D157" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F157" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="G157" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="H157" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="I157" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="158" spans="1:9">
       <c r="A158" s="1">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B158">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="C158" t="s">
         <v>164</v>
       </c>
       <c r="D158" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E158" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G158" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="H158" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="I158" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="159" spans="1:9">
       <c r="A159" s="1">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B159">
         <v>2006</v>
@@ -9919,27 +9962,27 @@
         <v>165</v>
       </c>
       <c r="D159" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="E159" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="F159" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G159" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H159" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="I159" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B160">
         <v>2006</v>
@@ -9948,27 +9991,27 @@
         <v>166</v>
       </c>
       <c r="D160" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F160" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="G160" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="H160" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="I160" t="s">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="1">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B161">
         <v>2006</v>
@@ -9977,27 +10020,27 @@
         <v>167</v>
       </c>
       <c r="D161" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E161" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G161" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="H161" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="I161" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="1">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B162">
         <v>2006</v>
@@ -10006,27 +10049,27 @@
         <v>168</v>
       </c>
       <c r="D162" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="E162" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G162" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="H162" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="I162" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="1">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B163">
         <v>2006</v>
@@ -10035,56 +10078,56 @@
         <v>169</v>
       </c>
       <c r="D163" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F163" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G163" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H163" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="I163" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B164">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="C164" t="s">
         <v>170</v>
       </c>
       <c r="D164" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="E164" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G164" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="H164" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="I164" t="s">
-        <v>1098</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="1">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B165">
         <v>2007</v>
@@ -10093,27 +10136,27 @@
         <v>171</v>
       </c>
       <c r="D165" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="E165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F165" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G165" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="H165" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
       <c r="I165" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="1">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B166">
         <v>2007</v>
@@ -10122,27 +10165,27 @@
         <v>172</v>
       </c>
       <c r="D166" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E166" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
       <c r="G166" t="s">
-        <v>667</v>
+        <v>684</v>
       </c>
       <c r="H166" t="s">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="I166" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B167">
         <v>2007</v>
@@ -10151,27 +10194,27 @@
         <v>173</v>
       </c>
       <c r="D167" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F167" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="G167" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="H167" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="I167" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="1">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B168">
         <v>2007</v>
@@ -10180,27 +10223,27 @@
         <v>174</v>
       </c>
       <c r="D168" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F168" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G168" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="H168" t="s">
-        <v>891</v>
+        <v>895</v>
       </c>
       <c r="I168" t="s">
-        <v>1102</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="1">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B169">
         <v>2007</v>
@@ -10209,27 +10252,27 @@
         <v>175</v>
       </c>
       <c r="D169" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="E169" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="G169" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="H169" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="I169" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="1">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B170">
         <v>2007</v>
@@ -10238,27 +10281,27 @@
         <v>176</v>
       </c>
       <c r="D170" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="E170" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F170" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G170" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="H170" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="I170" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="171" spans="1:9">
       <c r="A171" s="1">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B171">
         <v>2007</v>
@@ -10267,27 +10310,27 @@
         <v>177</v>
       </c>
       <c r="D171" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E171" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F171" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G171" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="H171" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="I171" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="1">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B172">
         <v>2007</v>
@@ -10296,30 +10339,30 @@
         <v>178</v>
       </c>
       <c r="D172" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="E172" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="F172" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="G172" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="H172" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="I172" t="s">
-        <v>1106</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="1">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B173">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="C173" t="s">
         <v>179</v>
@@ -10328,24 +10371,24 @@
         <v>256</v>
       </c>
       <c r="E173" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="F173" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G173" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="H173" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
       <c r="I173" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="174" spans="1:9">
       <c r="A174" s="1">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B174">
         <v>2008</v>
@@ -10354,27 +10397,27 @@
         <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E174" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F174" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G174" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="H174" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="I174" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="175" spans="1:9">
       <c r="A175" s="1">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B175">
         <v>2008</v>
@@ -10383,27 +10426,27 @@
         <v>181</v>
       </c>
       <c r="D175" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E175" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F175" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G175" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="H175" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="I175" t="s">
-        <v>1109</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="176" spans="1:9">
       <c r="A176" s="1">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B176">
         <v>2008</v>
@@ -10412,27 +10455,27 @@
         <v>182</v>
       </c>
       <c r="D176" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E176" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F176" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G176" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="H176" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="I176" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="177" spans="1:9">
       <c r="A177" s="1">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B177">
         <v>2008</v>
@@ -10441,27 +10484,27 @@
         <v>183</v>
       </c>
       <c r="D177" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="E177" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="F177" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="G177" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="H177" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="I177" t="s">
-        <v>1111</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="1">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B178">
         <v>2008</v>
@@ -10470,27 +10513,27 @@
         <v>184</v>
       </c>
       <c r="D178" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E178" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F178" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G178" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="H178" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="I178" t="s">
-        <v>1112</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B179">
         <v>2008</v>
@@ -10499,27 +10542,27 @@
         <v>185</v>
       </c>
       <c r="D179" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E179" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="F179" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="G179" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="H179" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="I179" t="s">
-        <v>1113</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="1">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B180">
         <v>2008</v>
@@ -10528,27 +10571,27 @@
         <v>186</v>
       </c>
       <c r="D180" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E180" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="F180" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G180" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="H180" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="I180" t="s">
-        <v>1114</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="1">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B181">
         <v>2008</v>
@@ -10557,27 +10600,27 @@
         <v>187</v>
       </c>
       <c r="D181" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="E181" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="F181" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G181" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H181" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
       <c r="I181" t="s">
-        <v>1115</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="1">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B182">
         <v>2008</v>
@@ -10586,27 +10629,27 @@
         <v>188</v>
       </c>
       <c r="D182" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E182" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F182" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G182" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="H182" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="I182" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B183">
         <v>2008</v>
@@ -10615,27 +10658,27 @@
         <v>189</v>
       </c>
       <c r="D183" t="s">
-        <v>230</v>
+        <v>268</v>
       </c>
       <c r="E183" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="F183" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="G183" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="H183" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="I183" t="s">
-        <v>1117</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="1">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B184">
         <v>2008</v>
@@ -10647,53 +10690,53 @@
         <v>231</v>
       </c>
       <c r="E184" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="F184" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="G184" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="H184" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="I184" t="s">
-        <v>1118</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B185">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="C185" t="s">
         <v>191</v>
       </c>
       <c r="D185" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="E185" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="F185" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="G185" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="H185" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
       <c r="I185" t="s">
-        <v>1119</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B186">
         <v>2009</v>
@@ -10702,27 +10745,27 @@
         <v>192</v>
       </c>
       <c r="D186" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E186" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F186" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G186" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="H186" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="I186" t="s">
-        <v>1120</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B187">
         <v>2009</v>
@@ -10731,27 +10774,27 @@
         <v>193</v>
       </c>
       <c r="D187" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="E187" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F187" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G187" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H187" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
       <c r="I187" t="s">
-        <v>1121</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B188">
         <v>2009</v>
@@ -10760,27 +10803,27 @@
         <v>194</v>
       </c>
       <c r="D188" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="E188" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F188" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="G188" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="H188" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="I188" t="s">
-        <v>1122</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="1">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B189">
         <v>2009</v>
@@ -10789,27 +10832,27 @@
         <v>195</v>
       </c>
       <c r="D189" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="E189" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F189" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="G189" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H189" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
       <c r="I189" t="s">
-        <v>1123</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="1">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B190">
         <v>2009</v>
@@ -10818,56 +10861,56 @@
         <v>196</v>
       </c>
       <c r="D190" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="E190" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F190" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="G190" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="H190" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="I190" t="s">
-        <v>1124</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="1">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B191">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="C191" t="s">
         <v>197</v>
       </c>
       <c r="D191" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E191" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F191" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="G191" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H191" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="I191" t="s">
-        <v>1125</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="1">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B192">
         <v>2010</v>
@@ -10876,27 +10919,27 @@
         <v>198</v>
       </c>
       <c r="D192" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="E192" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F192" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G192" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="H192" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="I192" t="s">
-        <v>1126</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="1">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B193">
         <v>2010</v>
@@ -10905,27 +10948,27 @@
         <v>199</v>
       </c>
       <c r="D193" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E193" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F193" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G193" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="H193" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="I193" t="s">
-        <v>1127</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="1">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B194">
         <v>2010</v>
@@ -10934,27 +10977,27 @@
         <v>200</v>
       </c>
       <c r="D194" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="E194" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="F194" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G194" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="H194" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="I194" t="s">
-        <v>1128</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="1">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B195">
         <v>2010</v>
@@ -10963,27 +11006,27 @@
         <v>201</v>
       </c>
       <c r="D195" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E195" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="F195" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G195" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="H195" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="I195" t="s">
-        <v>1129</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="1">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B196">
         <v>2010</v>
@@ -10992,56 +11035,56 @@
         <v>202</v>
       </c>
       <c r="D196" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="E196" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="F196" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="G196" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="H196" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="I196" t="s">
-        <v>1130</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="1">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B197">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="C197" t="s">
         <v>203</v>
       </c>
       <c r="D197" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E197" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F197" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G197" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="H197" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="I197" t="s">
-        <v>1131</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B198">
         <v>2011</v>
@@ -11053,24 +11096,24 @@
         <v>270</v>
       </c>
       <c r="E198" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F198" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G198" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="H198" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="I198" t="s">
-        <v>1132</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="1">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B199">
         <v>2011</v>
@@ -11079,27 +11122,27 @@
         <v>205</v>
       </c>
       <c r="D199" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E199" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F199" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G199" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="H199" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="I199" t="s">
-        <v>1133</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="1">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B200">
         <v>2011</v>
@@ -11108,27 +11151,27 @@
         <v>206</v>
       </c>
       <c r="D200" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E200" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="F200" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G200" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="H200" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I200" t="s">
-        <v>1134</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="1">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B201">
         <v>2011</v>
@@ -11137,56 +11180,56 @@
         <v>207</v>
       </c>
       <c r="D201" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="E201" t="s">
-        <v>308</v>
+        <v>284</v>
       </c>
       <c r="F201" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="G201" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="H201" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="I201" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="1">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B202">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="C202" t="s">
         <v>208</v>
       </c>
       <c r="D202" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E202" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F202" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G202" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="H202" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="I202" t="s">
-        <v>1136</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B203">
         <v>2012</v>
@@ -11195,27 +11238,27 @@
         <v>209</v>
       </c>
       <c r="D203" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="E203" t="s">
         <v>310</v>
       </c>
       <c r="F203" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G203" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="H203" t="s">
-        <v>926</v>
+        <v>930</v>
       </c>
       <c r="I203" t="s">
-        <v>1137</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B204">
         <v>2012</v>
@@ -11224,56 +11267,56 @@
         <v>210</v>
       </c>
       <c r="D204" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
       <c r="E204" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F204" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="G204" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="H204" t="s">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="I204" t="s">
-        <v>1138</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="1">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B205">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="C205" t="s">
         <v>211</v>
       </c>
       <c r="D205" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="E205" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="F205" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G205" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="H205" t="s">
-        <v>928</v>
+        <v>932</v>
       </c>
       <c r="I205" t="s">
-        <v>1139</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="1">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B206">
         <v>2013</v>
@@ -11282,27 +11325,27 @@
         <v>212</v>
       </c>
       <c r="D206" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E206" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="F206" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="G206" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="H206" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="I206" t="s">
-        <v>1140</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="1">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B207">
         <v>2013</v>
@@ -11311,85 +11354,85 @@
         <v>213</v>
       </c>
       <c r="D207" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E207" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F207" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G207" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="H207" t="s">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="I207" t="s">
-        <v>1141</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="1">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B208">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="C208" t="s">
         <v>214</v>
       </c>
       <c r="D208" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="E208" t="s">
         <v>312</v>
       </c>
       <c r="F208" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G208" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="H208" t="s">
-        <v>931</v>
+        <v>935</v>
       </c>
       <c r="I208" t="s">
-        <v>1142</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="1">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B209">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C209" t="s">
         <v>215</v>
       </c>
       <c r="D209" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="E209" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F209" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="G209" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="H209" t="s">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="I209" t="s">
-        <v>1143</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="1">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B210">
         <v>2015</v>
@@ -11398,80 +11441,109 @@
         <v>216</v>
       </c>
       <c r="D210" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="E210" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F210" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G210" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="H210" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="I210" t="s">
-        <v>1144</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="1">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B211">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="C211" t="s">
         <v>217</v>
       </c>
       <c r="D211" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="E211" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F211" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="G211" t="s">
-        <v>623</v>
+        <v>728</v>
       </c>
       <c r="H211" t="s">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="I211" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="1">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B212">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="C212" t="s">
         <v>218</v>
       </c>
       <c r="D212" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="E212" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F212" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G212" t="s">
-        <v>725</v>
+        <v>626</v>
       </c>
       <c r="H212" t="s">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="I212" t="s">
-        <v>1146</v>
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
+      <c r="A213" s="1">
+        <v>227</v>
+      </c>
+      <c r="B213">
+        <v>2017</v>
+      </c>
+      <c r="C213" t="s">
+        <v>219</v>
+      </c>
+      <c r="D213" t="s">
+        <v>225</v>
+      </c>
+      <c r="E213" t="s">
+        <v>317</v>
+      </c>
+      <c r="F213" t="s">
+        <v>528</v>
+      </c>
+      <c r="G213" t="s">
+        <v>729</v>
+      </c>
+      <c r="H213" t="s">
+        <v>940</v>
+      </c>
+      <c r="I213" t="s">
+        <v>1152</v>
       </c>
     </row>
   </sheetData>
